--- a/test/penv_result.xlsx
+++ b/test/penv_result.xlsx
@@ -558,10 +558,10 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>-3.995452958380827</v>
+        <v>-3.992934669072811</v>
       </c>
       <c r="Z2">
-        <v>2.03988154750644</v>
+        <v>2.042399836814456</v>
       </c>
       <c r="AA2">
         <v>0.0063</v>
@@ -587,16 +587,16 @@
         <v>-80.89</v>
       </c>
       <c r="F3">
-        <v>-0.5818945361920984</v>
+        <v>-0.7818945361920984</v>
       </c>
       <c r="G3">
-        <v>-0.221879526977692</v>
+        <v>-0.3631425419165785</v>
       </c>
       <c r="H3">
-        <v>-0.2445839688494094</v>
+        <v>-0.4445839688494094</v>
       </c>
       <c r="I3">
-        <v>0.01636801159018059</v>
+        <v>-0.1248950033487057</v>
       </c>
       <c r="J3">
         <v>16.5247355055232</v>
@@ -608,10 +608,10 @@
         <v>16.5247355055232</v>
       </c>
       <c r="M3">
-        <v>-0.3545191045891808</v>
+        <v>-0.5545191045891807</v>
       </c>
       <c r="N3">
-        <v>-0.0612808320213985</v>
+        <v>-0.2025438469602849</v>
       </c>
       <c r="O3">
         <v>16.5247355055232</v>
@@ -620,22 +620,22 @@
         <v>16.5247355055232</v>
       </c>
       <c r="Q3">
-        <v>-0.2445839688494094</v>
+        <v>-0.4445839688494094</v>
       </c>
       <c r="R3">
-        <v>0.01636801159018059</v>
+        <v>-0.1248950033487057</v>
       </c>
       <c r="S3">
-        <v>-0.5818945361920984</v>
+        <v>-0.7818945361920984</v>
       </c>
       <c r="T3">
-        <v>-0.221879526977692</v>
+        <v>-0.3631425419165785</v>
       </c>
       <c r="U3">
-        <v>0.006960040564217905</v>
+        <v>0.00947832987223423</v>
       </c>
       <c r="V3">
-        <v>0.01349755202979958</v>
+        <v>0.01601584133781592</v>
       </c>
       <c r="W3">
         <v>0.04096159903220648</v>
@@ -644,22 +644,22 @@
         <v>-0.02073847169941552</v>
       </c>
       <c r="Y3">
-        <v>-1.030337190798787</v>
+        <v>-1.026492312377353</v>
       </c>
       <c r="Z3">
-        <v>0.5539350509245732</v>
+        <v>0.557779929346007</v>
       </c>
       <c r="AA3">
-        <v>0.006902412884052477</v>
+        <v>0.009200832113358808</v>
       </c>
       <c r="AB3">
-        <v>0.01286913879456337</v>
+        <v>0.01516755802386971</v>
       </c>
       <c r="AC3">
-        <v>0.0128712546998462</v>
+        <v>0.01517041424497499</v>
       </c>
       <c r="AD3">
-        <v>0.006902606919928972</v>
+        <v>0.009201766465057748</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -679,16 +679,16 @@
         <v>-87.3</v>
       </c>
       <c r="F4">
-        <v>-0.4353125423309869</v>
+        <v>-0.6353125423309869</v>
       </c>
       <c r="G4">
-        <v>-0.08994889957986529</v>
+        <v>-0.2312119145187517</v>
       </c>
       <c r="H4">
-        <v>-0.1542204028787461</v>
+        <v>-0.3542204028787461</v>
       </c>
       <c r="I4">
-        <v>0.1085907158933618</v>
+        <v>-0.0326722990455246</v>
       </c>
       <c r="J4">
         <v>16.68805355396226</v>
@@ -700,10 +700,10 @@
         <v>16.68805355396226</v>
       </c>
       <c r="M4">
-        <v>-0.1899191045891807</v>
+        <v>-0.3899191045891807</v>
       </c>
       <c r="N4">
-        <v>0.08337618472826197</v>
+        <v>-0.05788683021062446</v>
       </c>
       <c r="O4">
         <v>16.68805355396226</v>
@@ -712,22 +712,22 @@
         <v>16.68805355396226</v>
       </c>
       <c r="Q4">
-        <v>-0.1542204028787461</v>
+        <v>-0.3542204028787461</v>
       </c>
       <c r="R4">
-        <v>0.1085907158933618</v>
+        <v>-0.0326722990455246</v>
       </c>
       <c r="S4">
-        <v>-0.4353125423309869</v>
+        <v>-0.6353125423309869</v>
       </c>
       <c r="T4">
-        <v>-0.08994889957986529</v>
+        <v>-0.2312119145187517</v>
       </c>
       <c r="U4">
-        <v>0.008110580209695817</v>
+        <v>0.01195545863112958</v>
       </c>
       <c r="V4">
-        <v>0.01634810935617435</v>
+        <v>0.0201929877776081</v>
       </c>
       <c r="W4">
         <v>0.01651525975242353</v>
@@ -742,16 +742,16 @@
         <v>0.1029993354919311</v>
       </c>
       <c r="AA4">
-        <v>0.007899473422433943</v>
+        <v>0.01147413427983304</v>
       </c>
       <c r="AB4">
-        <v>0.01574021814553492</v>
+        <v>0.019314879002934</v>
       </c>
       <c r="AC4">
-        <v>0.01574393057181737</v>
+        <v>0.01932024166328655</v>
       </c>
       <c r="AD4">
-        <v>0.007900762663620062</v>
+        <v>0.01147707375508925</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -834,16 +834,16 @@
         <v>0.05942048766796657</v>
       </c>
       <c r="AA5">
-        <v>0.007310226648020023</v>
+        <v>0.009589471774614205</v>
       </c>
       <c r="AB5">
-        <v>0.01664804604747957</v>
+        <v>0.01892729117407374</v>
       </c>
       <c r="AC5">
-        <v>0.01668011517945114</v>
+        <v>0.01891359958648576</v>
       </c>
       <c r="AD5">
-        <v>0.007289411433449041</v>
+        <v>0.009522895840483667</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -926,16 +926,16 @@
         <v>0.06089092314211392</v>
       </c>
       <c r="AA6">
-        <v>0.006980635345612976</v>
+        <v>0.008960160494083536</v>
       </c>
       <c r="AB6">
-        <v>0.01692377968525315</v>
+        <v>0.0189033048337237</v>
       </c>
       <c r="AC6">
-        <v>0.01697577711671641</v>
+        <v>0.0188987815260182</v>
       </c>
       <c r="AD6">
-        <v>0.006918481517388832</v>
+        <v>0.008841485926690635</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -1018,16 +1018,16 @@
         <v>0.05901878903765618</v>
       </c>
       <c r="AA7">
-        <v>0.006184545938409505</v>
+        <v>0.008047744974150978</v>
       </c>
       <c r="AB7">
-        <v>0.01735327532615202</v>
+        <v>0.01921647436189348</v>
       </c>
       <c r="AC7">
-        <v>0.0175155015833081</v>
+        <v>0.01933476268794958</v>
       </c>
       <c r="AD7">
-        <v>0.005883852304774622</v>
+        <v>0.007703113409416113</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1104,22 +1104,22 @@
         <v>-0.001361848411160211</v>
       </c>
       <c r="Y8">
-        <v>-0.02495994039544535</v>
+        <v>-0.01864904827323405</v>
       </c>
       <c r="Z8">
-        <v>0.03664347654516391</v>
+        <v>0.04295436866737521</v>
       </c>
       <c r="AA8">
-        <v>0.006068815067204085</v>
+        <v>0.007866244696811138</v>
       </c>
       <c r="AB8">
-        <v>0.01781265109872606</v>
+        <v>0.01961008072833311</v>
       </c>
       <c r="AC8">
-        <v>0.01815571997688228</v>
+        <v>0.01990403200445929</v>
       </c>
       <c r="AD8">
-        <v>0.005982385476174477</v>
+        <v>0.007730697503751485</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1139,13 +1139,13 @@
         <v>-85.94</v>
       </c>
       <c r="F9">
-        <v>-0.2413</v>
+        <v>-0.3613</v>
       </c>
       <c r="G9">
         <v>-0.1836684585785424</v>
       </c>
       <c r="H9">
-        <v>-0.2413</v>
+        <v>-0.3613</v>
       </c>
       <c r="I9">
         <v>-0.1836684585785424</v>
@@ -1160,7 +1160,7 @@
         <v>7.427381796319062</v>
       </c>
       <c r="M9">
-        <v>-0.2413</v>
+        <v>-0.3613</v>
       </c>
       <c r="N9">
         <v>-0.1836684585785424</v>
@@ -1172,22 +1172,22 @@
         <v>7.427381796319062</v>
       </c>
       <c r="Q9">
-        <v>-0.2413</v>
+        <v>-0.3613</v>
       </c>
       <c r="R9">
         <v>-0.1836684585785424</v>
       </c>
       <c r="S9">
-        <v>-0.2413</v>
+        <v>-0.3613</v>
       </c>
       <c r="T9">
         <v>-0.1836684585785424</v>
       </c>
       <c r="U9">
-        <v>-0.0038625058361771</v>
+        <v>0.002448386286034203</v>
       </c>
       <c r="V9">
-        <v>0.02609475926552978</v>
+        <v>0.03240565138774108</v>
       </c>
       <c r="W9">
         <v>0.001223795103646027</v>
@@ -1202,16 +1202,16 @@
         <v>1</v>
       </c>
       <c r="AA9">
-        <v>0.005759391012244344</v>
+        <v>0.007697443815743082</v>
       </c>
       <c r="AB9">
-        <v>0.01807069164716057</v>
+        <v>0.02000874445065931</v>
       </c>
       <c r="AC9">
-        <v>0.01837075837323361</v>
+        <v>0.0204723371638521</v>
       </c>
       <c r="AD9">
-        <v>0.005399572124463704</v>
+        <v>0.007501150915082201</v>
       </c>
     </row>
   </sheetData>

--- a/test/penv_result.xlsx
+++ b/test/penv_result.xlsx
@@ -558,10 +558,10 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>-3.992934669072811</v>
+        <v>-2.87413053845901</v>
       </c>
       <c r="Z2">
-        <v>2.042399836814456</v>
+        <v>1.484791740628893</v>
       </c>
       <c r="AA2">
         <v>0.0063</v>
@@ -581,85 +581,85 @@
         <v>336</v>
       </c>
       <c r="D3">
-        <v>39.11</v>
+        <v>18.37</v>
       </c>
       <c r="E3">
-        <v>-80.89</v>
+        <v>-101.63</v>
       </c>
       <c r="F3">
-        <v>-0.7818945361920984</v>
+        <v>-1.0231506773862</v>
       </c>
       <c r="G3">
-        <v>-0.3631425419165785</v>
+        <v>-0.4374395176060744</v>
       </c>
       <c r="H3">
-        <v>-0.4445839688494094</v>
+        <v>-0.5059674056523835</v>
       </c>
       <c r="I3">
-        <v>-0.1248950033487057</v>
+        <v>-0.07214517640069329</v>
       </c>
       <c r="J3">
-        <v>16.5247355055232</v>
+        <v>14.23084448760408</v>
       </c>
       <c r="K3">
-        <v>16.5247355055232</v>
+        <v>14.23084448760408</v>
       </c>
       <c r="L3">
-        <v>16.5247355055232</v>
+        <v>14.23084448760408</v>
       </c>
       <c r="M3">
-        <v>-0.5545191045891807</v>
+        <v>-0.5851395448336352</v>
       </c>
       <c r="N3">
-        <v>-0.2025438469602849</v>
+        <v>-0.1280656518002171</v>
       </c>
       <c r="O3">
-        <v>16.5247355055232</v>
+        <v>14.23084448760408</v>
       </c>
       <c r="P3">
-        <v>16.5247355055232</v>
+        <v>14.23084448760408</v>
       </c>
       <c r="Q3">
-        <v>-0.4445839688494094</v>
+        <v>-0.5059674056523835</v>
       </c>
       <c r="R3">
-        <v>-0.1248950033487057</v>
+        <v>-0.07214517640069329</v>
       </c>
       <c r="S3">
-        <v>-0.7818945361920984</v>
+        <v>-1.0231506773862</v>
       </c>
       <c r="T3">
-        <v>-0.3631425419165785</v>
+        <v>-0.4374395176060744</v>
       </c>
       <c r="U3">
-        <v>0.00947832987223423</v>
+        <v>0.009133242001687534</v>
       </c>
       <c r="V3">
-        <v>0.01601584133781592</v>
+        <v>0.02112047355486455</v>
       </c>
       <c r="W3">
-        <v>0.04096159903220648</v>
+        <v>0.03439635526781767</v>
       </c>
       <c r="X3">
-        <v>-0.02073847169941552</v>
+        <v>-0.01746109989614993</v>
       </c>
       <c r="Y3">
-        <v>-1.026492312377353</v>
+        <v>-0.63641847061382</v>
       </c>
       <c r="Z3">
-        <v>0.557779929346007</v>
+        <v>0.3696271059445797</v>
       </c>
       <c r="AA3">
-        <v>0.009200832113358808</v>
+        <v>0.008860829757188585</v>
       </c>
       <c r="AB3">
-        <v>0.01516755802386971</v>
+        <v>0.01969550581006432</v>
       </c>
       <c r="AC3">
-        <v>0.01517041424497499</v>
+        <v>0.01970058862469999</v>
       </c>
       <c r="AD3">
-        <v>0.009201766465057748</v>
+        <v>0.008861801443002755</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -673,85 +673,85 @@
         <v>336</v>
       </c>
       <c r="D4">
-        <v>12.7</v>
+        <v>18.53</v>
       </c>
       <c r="E4">
-        <v>-87.3</v>
+        <v>-81.47</v>
       </c>
       <c r="F4">
-        <v>-0.6353125423309869</v>
+        <v>-0.8236638877349185</v>
       </c>
       <c r="G4">
-        <v>-0.2312119145187517</v>
+        <v>-0.2921931896054355</v>
       </c>
       <c r="H4">
-        <v>-0.3542204028787461</v>
+        <v>-0.3926778279567383</v>
       </c>
       <c r="I4">
-        <v>-0.0326722990455246</v>
+        <v>0.01221876139904882</v>
       </c>
       <c r="J4">
-        <v>16.68805355396226</v>
+        <v>12.6502837182674</v>
       </c>
       <c r="K4">
-        <v>16.68805355396226</v>
+        <v>12.6502837182674</v>
       </c>
       <c r="L4">
-        <v>16.68805355396226</v>
+        <v>12.6502837182674</v>
       </c>
       <c r="M4">
-        <v>-0.3899191045891807</v>
+        <v>-0.4725395448336351</v>
       </c>
       <c r="N4">
-        <v>-0.05788683021062446</v>
+        <v>-0.04418877312208214</v>
       </c>
       <c r="O4">
-        <v>16.68805355396226</v>
+        <v>12.6502837182674</v>
       </c>
       <c r="P4">
-        <v>16.68805355396226</v>
+        <v>12.6502837182674</v>
       </c>
       <c r="Q4">
-        <v>-0.3542204028787461</v>
+        <v>-0.3926778279567383</v>
       </c>
       <c r="R4">
-        <v>-0.0326722990455246</v>
+        <v>0.01221876139904882</v>
       </c>
       <c r="S4">
-        <v>-0.6353125423309869</v>
+        <v>-0.8236638877349185</v>
       </c>
       <c r="T4">
-        <v>-0.2312119145187517</v>
+        <v>-0.2921931896054355</v>
       </c>
       <c r="U4">
-        <v>0.01195545863112958</v>
+        <v>0.01144978231697838</v>
       </c>
       <c r="V4">
-        <v>0.0201929877776081</v>
+        <v>0.02951348702483948</v>
       </c>
       <c r="W4">
-        <v>0.01651525975242353</v>
+        <v>0.01204206861318278</v>
       </c>
       <c r="X4">
-        <v>-0.008549672142770203</v>
+        <v>-0.006321766063982288</v>
       </c>
       <c r="Y4">
-        <v>-0.1502340841289299</v>
+        <v>-0.09113816209965289</v>
       </c>
       <c r="Z4">
-        <v>0.1029993354919311</v>
+        <v>0.08939499002836609</v>
       </c>
       <c r="AA4">
-        <v>0.01147413427983304</v>
+        <v>0.01084509490996297</v>
       </c>
       <c r="AB4">
-        <v>0.019314879002934</v>
+        <v>0.02722035516329217</v>
       </c>
       <c r="AC4">
-        <v>0.01932024166328655</v>
+        <v>0.02723480434075968</v>
       </c>
       <c r="AD4">
-        <v>0.01147707375508925</v>
+        <v>0.01084890508582021</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -765,85 +765,85 @@
         <v>336</v>
       </c>
       <c r="D5">
-        <v>-14.24</v>
+        <v>6.43</v>
       </c>
       <c r="E5">
-        <v>-94.23999999999999</v>
+        <v>-73.56999999999999</v>
       </c>
       <c r="F5">
-        <v>-0.1817203368089724</v>
+        <v>-0.5707159890124422</v>
       </c>
       <c r="G5">
-        <v>0.08373760502209177</v>
+        <v>-0.1174547179070453</v>
       </c>
       <c r="H5">
-        <v>0.04315337475282019</v>
+        <v>-0.2259271411898982</v>
       </c>
       <c r="I5">
-        <v>0.2425692974006734</v>
+        <v>0.126074842896542</v>
       </c>
       <c r="J5">
-        <v>15.19844937589174</v>
+        <v>11.85964098587569</v>
       </c>
       <c r="K5">
-        <v>15.19844937589174</v>
+        <v>11.85964098587569</v>
       </c>
       <c r="L5">
-        <v>15.19844937589174</v>
+        <v>11.85964098587569</v>
       </c>
       <c r="M5">
-        <v>0.08318089541081929</v>
+        <v>-0.2536395448336352</v>
       </c>
       <c r="N5">
-        <v>0.270841338644061</v>
+        <v>0.1065011544469537</v>
       </c>
       <c r="O5">
-        <v>15.19844937589174</v>
+        <v>11.85964098587569</v>
       </c>
       <c r="P5">
-        <v>15.19844937589174</v>
+        <v>11.85964098587569</v>
       </c>
       <c r="Q5">
-        <v>0.04315337475282019</v>
+        <v>-0.2259271411898982</v>
       </c>
       <c r="R5">
-        <v>0.2425692974006734</v>
+        <v>0.126074842896542</v>
       </c>
       <c r="S5">
-        <v>-0.1817203368089724</v>
+        <v>-0.5707159890124422</v>
       </c>
       <c r="T5">
-        <v>0.08373760502209177</v>
+        <v>-0.1174547179070453</v>
       </c>
       <c r="U5">
-        <v>0.006273464620968091</v>
+        <v>0.009394034799342758</v>
       </c>
       <c r="V5">
-        <v>0.0182453420136231</v>
+        <v>0.03329805302032233</v>
       </c>
       <c r="W5">
-        <v>0.007157684958239824</v>
+        <v>0.005337187945480913</v>
       </c>
       <c r="X5">
-        <v>-0.003876122200596648</v>
+        <v>-0.002978149341335288</v>
       </c>
       <c r="Y5">
-        <v>-0.06354004329062332</v>
+        <v>-0.04765163095939182</v>
       </c>
       <c r="Z5">
-        <v>0.05942048766796657</v>
+        <v>0.07101615487188409</v>
       </c>
       <c r="AA5">
-        <v>0.009589471774614205</v>
+        <v>0.01050696060608766</v>
       </c>
       <c r="AB5">
-        <v>0.01892729117407374</v>
+        <v>0.02863661498534252</v>
       </c>
       <c r="AC5">
-        <v>0.01891359958648576</v>
+        <v>0.02873040712614659</v>
       </c>
       <c r="AD5">
-        <v>0.009522895840483667</v>
+        <v>0.01048456758204928</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -857,85 +857,85 @@
         <v>336</v>
       </c>
       <c r="D6">
-        <v>-24.53</v>
+        <v>2.97</v>
       </c>
       <c r="E6">
-        <v>-84.53</v>
+        <v>-57.03</v>
       </c>
       <c r="F6">
-        <v>-0.08142629006815992</v>
+        <v>-0.3955308947251313</v>
       </c>
       <c r="G6">
-        <v>0.1488179406614547</v>
+        <v>0.005832105706253421</v>
       </c>
       <c r="H6">
-        <v>0.08722899360318459</v>
+        <v>-0.1369392588582232</v>
       </c>
       <c r="I6">
-        <v>0.267941709945391</v>
+        <v>0.1884792763089439</v>
       </c>
       <c r="J6">
-        <v>13.54283509363867</v>
+        <v>10.80520911087116</v>
       </c>
       <c r="K6">
-        <v>13.54283509363867</v>
+        <v>10.80520911087116</v>
       </c>
       <c r="L6">
-        <v>13.54283509363867</v>
+        <v>10.80520911087116</v>
       </c>
       <c r="M6">
-        <v>0.1561808954108193</v>
+        <v>-0.1497395448336352</v>
       </c>
       <c r="N6">
-        <v>0.3166434776209736</v>
+        <v>0.1794382413641107</v>
       </c>
       <c r="O6">
-        <v>13.54283509363867</v>
+        <v>10.80520911087116</v>
       </c>
       <c r="P6">
-        <v>13.54283509363867</v>
+        <v>10.80520911087116</v>
       </c>
       <c r="Q6">
-        <v>0.08722899360318459</v>
+        <v>-0.1369392588582232</v>
       </c>
       <c r="R6">
-        <v>0.267941709945391</v>
+        <v>0.1884792763089439</v>
       </c>
       <c r="S6">
-        <v>-0.08142629006815992</v>
+        <v>-0.3955308947251313</v>
       </c>
       <c r="T6">
-        <v>0.1488179406614547</v>
+        <v>0.005832105706253421</v>
       </c>
       <c r="U6">
-        <v>0.004803822588864365</v>
+        <v>0.006556296475066355</v>
       </c>
       <c r="V6">
-        <v>0.01874488508392945</v>
+        <v>0.03587952163432436</v>
       </c>
       <c r="W6">
-        <v>0.004116878108660173</v>
+        <v>0.002718053751004552</v>
       </c>
       <c r="X6">
-        <v>-0.002450205233196253</v>
+        <v>-0.001761795041592241</v>
       </c>
       <c r="Y6">
-        <v>-0.06109297254348321</v>
+        <v>-0.05530007483569668</v>
       </c>
       <c r="Z6">
-        <v>0.06089092314211392</v>
+        <v>0.07585499778225262</v>
       </c>
       <c r="AA6">
-        <v>0.008960160494083536</v>
+        <v>0.01015411342174358</v>
       </c>
       <c r="AB6">
-        <v>0.0189033048337237</v>
+        <v>0.02928350349137697</v>
       </c>
       <c r="AC6">
-        <v>0.0188987815260182</v>
+        <v>0.02942538780110549</v>
       </c>
       <c r="AD6">
-        <v>0.008841485926690635</v>
+        <v>0.01007672221951429</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -949,85 +949,85 @@
         <v>336</v>
       </c>
       <c r="D7">
-        <v>-81.88</v>
+        <v>-90.70999999999999</v>
       </c>
       <c r="E7">
         <v>-140.6</v>
       </c>
       <c r="F7">
-        <v>-0.1178500669096276</v>
+        <v>-0.4580241149766267</v>
       </c>
       <c r="G7">
-        <v>-0.1189845142126512</v>
+        <v>-0.2863227593446274</v>
       </c>
       <c r="H7">
-        <v>-0.007811864052057055</v>
+        <v>-0.3146781514944039</v>
       </c>
       <c r="I7">
-        <v>-0.04126287274206521</v>
+        <v>-0.1850753444405359</v>
       </c>
       <c r="J7">
-        <v>11.23215391380037</v>
+        <v>9.092753770228061</v>
       </c>
       <c r="K7">
-        <v>11.23215391380037</v>
+        <v>9.092753770228061</v>
       </c>
       <c r="L7">
-        <v>11.23215391380037</v>
+        <v>9.092753770228061</v>
       </c>
       <c r="M7">
-        <v>0.1456269651369395</v>
+        <v>-0.05404651494454579</v>
       </c>
       <c r="N7">
-        <v>0.06711328535758708</v>
+        <v>-0.0009872906030907874</v>
       </c>
       <c r="O7">
-        <v>11.23215391380037</v>
+        <v>9.092753770228061</v>
       </c>
       <c r="P7">
-        <v>11.23215391380037</v>
+        <v>9.092753770228061</v>
       </c>
       <c r="Q7">
-        <v>-0.007811864052057055</v>
+        <v>-0.3146781514944039</v>
       </c>
       <c r="R7">
-        <v>-0.04126287274206521</v>
+        <v>-0.1850753444405359</v>
       </c>
       <c r="S7">
-        <v>-0.1178500669096276</v>
+        <v>-0.4580241149766267</v>
       </c>
       <c r="T7">
-        <v>-0.1189845142126512</v>
+        <v>-0.2863227593446274</v>
       </c>
       <c r="U7">
-        <v>-0.006566443337058635</v>
+        <v>-0.01192397566847313</v>
       </c>
       <c r="V7">
-        <v>0.02423252062373712</v>
+        <v>0.04150954924400135</v>
       </c>
       <c r="W7">
-        <v>0.002460474121530364</v>
+        <v>0.001499874174637297</v>
       </c>
       <c r="X7">
-        <v>-0.001654186540860594</v>
+        <v>-0.001187609127327498</v>
       </c>
       <c r="Y7">
-        <v>-0.0350343146078768</v>
+        <v>-0.1041505698014761</v>
       </c>
       <c r="Z7">
-        <v>0.05901878903765618</v>
+        <v>0.07733289801797667</v>
       </c>
       <c r="AA7">
-        <v>0.008047744974150978</v>
+        <v>0.009446238777498353</v>
       </c>
       <c r="AB7">
-        <v>0.01921647436189348</v>
+        <v>0.02967549881997178</v>
       </c>
       <c r="AC7">
-        <v>0.01933476268794958</v>
+        <v>0.02986536854883751</v>
       </c>
       <c r="AD7">
-        <v>0.007703113409416113</v>
+        <v>0.009103367429373951</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1041,85 +1041,85 @@
         <v>336</v>
       </c>
       <c r="D8">
-        <v>26.1</v>
+        <v>140.6</v>
       </c>
       <c r="E8">
-        <v>26.1</v>
+        <v>-140.6</v>
       </c>
       <c r="F8">
-        <v>-0.2743</v>
+        <v>-0.4780241149766266</v>
       </c>
       <c r="G8">
-        <v>-0.2082703598913536</v>
+        <v>-0.3293684361214495</v>
       </c>
       <c r="H8">
-        <v>-0.2743</v>
+        <v>0.329931085087535</v>
       </c>
       <c r="I8">
-        <v>-0.2082703598913536</v>
+        <v>0.2413025013616236</v>
       </c>
       <c r="J8">
-        <v>9.574744927718303</v>
+        <v>7.642638181304306</v>
       </c>
       <c r="K8">
-        <v>9.574744927718303</v>
+        <v>7.642638181304306</v>
       </c>
       <c r="L8">
-        <v>9.574744927718303</v>
+        <v>7.642638181304306</v>
       </c>
       <c r="M8">
-        <v>-0.2743</v>
+        <v>-0.07404651494454578</v>
       </c>
       <c r="N8">
-        <v>-0.2082703598913536</v>
+        <v>-0.04403296737991291</v>
       </c>
       <c r="O8">
-        <v>9.574744927718303</v>
+        <v>7.642638181304306</v>
       </c>
       <c r="P8">
-        <v>9.574744927718303</v>
+        <v>7.642638181304306</v>
       </c>
       <c r="Q8">
-        <v>-0.2743</v>
+        <v>0.329931085087535</v>
       </c>
       <c r="R8">
-        <v>-0.2082703598913536</v>
+        <v>0.2413025013616236</v>
       </c>
       <c r="S8">
-        <v>-0.2743</v>
+        <v>-0.4780241149766266</v>
       </c>
       <c r="T8">
-        <v>-0.2082703598913536</v>
+        <v>-0.3293684361214495</v>
       </c>
       <c r="U8">
-        <v>0.002905975242564218</v>
+        <v>-0.07590698325102638</v>
       </c>
       <c r="V8">
-        <v>0.03036705402370697</v>
+        <v>0.05086667861553389</v>
       </c>
       <c r="W8">
-        <v>0.001803343616944167</v>
+        <v>0.00103434299229522</v>
       </c>
       <c r="X8">
-        <v>-0.001361848411160211</v>
+        <v>-0.0009692518520112886</v>
       </c>
       <c r="Y8">
-        <v>-0.01864904827323405</v>
+        <v>-0.1013799025838043</v>
       </c>
       <c r="Z8">
-        <v>0.04295436866737521</v>
+        <v>0.05279486218599103</v>
       </c>
       <c r="AA8">
-        <v>0.007866244696811138</v>
+        <v>0.007663097072629941</v>
       </c>
       <c r="AB8">
-        <v>0.01961008072833311</v>
+        <v>0.03011821059547105</v>
       </c>
       <c r="AC8">
-        <v>0.01990403200445929</v>
+        <v>0.03050868491997199</v>
       </c>
       <c r="AD8">
-        <v>0.007730697503751485</v>
+        <v>0.006090355864396359</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1133,67 +1133,67 @@
         <v>336</v>
       </c>
       <c r="D9">
-        <v>-85.94</v>
+        <v>140.6</v>
       </c>
       <c r="E9">
-        <v>-85.94</v>
+        <v>-140.6</v>
       </c>
       <c r="F9">
-        <v>-0.3613</v>
+        <v>-0.4524241149766267</v>
       </c>
       <c r="G9">
-        <v>-0.1836684585785424</v>
+        <v>-0.3121822319566691</v>
       </c>
       <c r="H9">
-        <v>-0.3613</v>
+        <v>0.355531085087535</v>
       </c>
       <c r="I9">
-        <v>-0.1836684585785424</v>
+        <v>0.2584887055264041</v>
       </c>
       <c r="J9">
-        <v>7.427381796319062</v>
+        <v>5.410576205349702</v>
       </c>
       <c r="K9">
-        <v>7.427381796319062</v>
+        <v>5.410576205349702</v>
       </c>
       <c r="L9">
-        <v>7.427381796319062</v>
+        <v>5.410576205349702</v>
       </c>
       <c r="M9">
-        <v>-0.3613</v>
+        <v>-0.04844651494454579</v>
       </c>
       <c r="N9">
-        <v>-0.1836684585785424</v>
+        <v>-0.02684676321513248</v>
       </c>
       <c r="O9">
-        <v>7.427381796319062</v>
+        <v>5.410576205349702</v>
       </c>
       <c r="P9">
-        <v>7.427381796319062</v>
+        <v>5.410576205349702</v>
       </c>
       <c r="Q9">
-        <v>-0.3613</v>
+        <v>0.355531085087535</v>
       </c>
       <c r="R9">
-        <v>-0.1836684585785424</v>
+        <v>0.2584887055264041</v>
       </c>
       <c r="S9">
-        <v>-0.3613</v>
+        <v>-0.4524241149766267</v>
       </c>
       <c r="T9">
-        <v>-0.1836684585785424</v>
+        <v>-0.3121822319566691</v>
       </c>
       <c r="U9">
-        <v>0.002448386286034203</v>
+        <v>-0.09010518232724722</v>
       </c>
       <c r="V9">
-        <v>0.03240565138774108</v>
+        <v>0.0471575020577125</v>
       </c>
       <c r="W9">
-        <v>0.001223795103646027</v>
+        <v>0.0005937145505192322</v>
       </c>
       <c r="X9">
-        <v>-0.0006118975518230135</v>
+        <v>-0.0002968572752596161</v>
       </c>
       <c r="Y9">
         <v>-1</v>
@@ -1202,16 +1202,16 @@
         <v>1</v>
       </c>
       <c r="AA9">
-        <v>0.007697443815743082</v>
+        <v>0.005417402809721732</v>
       </c>
       <c r="AB9">
-        <v>0.02000874445065931</v>
+        <v>0.03050959560618879</v>
       </c>
       <c r="AC9">
-        <v>0.0204723371638521</v>
+        <v>0.03100978314244442</v>
       </c>
       <c r="AD9">
-        <v>0.007501150915082201</v>
+        <v>0.002547419928957998</v>
       </c>
     </row>
   </sheetData>
